--- a/data/bulk/examples/AAA_f22_text only_out.xlsx
+++ b/data/bulk/examples/AAA_f22_text only_out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\data\bulk\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B6DF7-E127-4381-9515-7AA3582A7FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF45EF-D4B4-46A2-BAF8-BC46F61DAEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="553">
   <si>
     <t>UNIQUEID</t>
   </si>
@@ -902,6 +902,393 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>POINT(0.916350216921341 35.9625191284127)</t>
+  </si>
+  <si>
+    <t>POINT(0.957767670853029 35.9286488162478)</t>
+  </si>
+  <si>
+    <t>POINT(1.00853660759798 35.9425817713313)</t>
+  </si>
+  <si>
+    <t>POINT(0.88754665497053 35.9383397036432)</t>
+  </si>
+  <si>
+    <t>POINT(0.841885476408696 35.9300938391526)</t>
+  </si>
+  <si>
+    <t>POINT(0.804282747481316 35.9058829823467)</t>
+  </si>
+  <si>
+    <t>POINT(0.839024276775074 35.9045507478825)</t>
+  </si>
+  <si>
+    <t>POINT(0.766413390433329 35.7853226202408)</t>
+  </si>
+  <si>
+    <t>POINT(0.786607430549258 35.7911004960321)</t>
+  </si>
+  <si>
+    <t>POINT(0.74897591146869 35.7947193699268)</t>
+  </si>
+  <si>
+    <t>POINT(0.721913443362381 35.780493113194)</t>
+  </si>
+  <si>
+    <t>POINT(0.688704569383253 35.7784500704251)</t>
+  </si>
+  <si>
+    <t>POINT(0.69304215705726 35.7837880721131)</t>
+  </si>
+  <si>
+    <t>POINT(0.78898607697114 35.7241338121606)</t>
+  </si>
+  <si>
+    <t>POINT(0.736570367659955 35.7329910398572)</t>
+  </si>
+  <si>
+    <t>POINT(0.709108048911956 35.7413718363155)</t>
+  </si>
+  <si>
+    <t>POINT(0.688849257762831 35.7395672325316)</t>
+  </si>
+  <si>
+    <t>POINT(0.625761354545192 35.7346849726325)</t>
+  </si>
+  <si>
+    <t>POINT(0.594298334871144 35.7200976204882)</t>
+  </si>
+  <si>
+    <t>POINT(0.570679075549838 35.7202011296118)</t>
+  </si>
+  <si>
+    <t>POINT(0.814255063312776 35.7202850627034)</t>
+  </si>
+  <si>
+    <t>POINT(0.67399713859561 35.737193496021)</t>
+  </si>
+  <si>
+    <t>POINT(0.663530083857861 35.7145063134676)</t>
+  </si>
+  <si>
+    <t>POINT(0.728032245357769 35.7002112017676)</t>
+  </si>
+  <si>
+    <t>POINT(0.574647675914232 35.6696235300088)</t>
+  </si>
+  <si>
+    <t>POINT(0.607187707722259 35.690137671431)</t>
+  </si>
+  <si>
+    <t>POINT(0.603368990317347 35.6724726694994)</t>
+  </si>
+  <si>
+    <t>POINT(0.624819305027317 35.673614949206)</t>
+  </si>
+  <si>
+    <t>POINT(0.638890103696038 35.6827662561674)</t>
+  </si>
+  <si>
+    <t>POINT(0.629420423341245 35.6573637778906)</t>
+  </si>
+  <si>
+    <t>POINT(0.639727314452958 35.6479258612755)</t>
+  </si>
+  <si>
+    <t>POINT(0.652371152916024 35.6399995651938)</t>
+  </si>
+  <si>
+    <t>POINT(0.659019050988739 35.6325746402464)</t>
+  </si>
+  <si>
+    <t>POINT(0.693162646429329 35.6085608310309)</t>
+  </si>
+  <si>
+    <t>POINT(0.711804852317118 35.5933280037426)</t>
+  </si>
+  <si>
+    <t>POINT(0.571171836627975 35.5650465927055)</t>
+  </si>
+  <si>
+    <t>POINT(0.571351320112963 35.5556911544005)</t>
+  </si>
+  <si>
+    <t>POINT(0.611328977501881 35.5516222384834)</t>
+  </si>
+  <si>
+    <t>POINT(0.644149850261556 35.5198527310598)</t>
+  </si>
+  <si>
+    <t>POINT(0.613792005379215 35.5060582358119)</t>
+  </si>
+  <si>
+    <t>POINT(0.582855899925723 35.4880574249816)</t>
+  </si>
+  <si>
+    <t>POINT(0.657043623745192 35.4575232875428)</t>
+  </si>
+  <si>
+    <t>POINT(0.687760398534544 35.4561680992967)</t>
+  </si>
+  <si>
+    <t>POINT(0.691619442437061 35.4690555524646)</t>
+  </si>
+  <si>
+    <t>POINT(0.748836368930932 35.4531140542194)</t>
+  </si>
+  <si>
+    <t>POINT(0.843760199461118 35.7791964548239)</t>
+  </si>
+  <si>
+    <t>POINT(0.91155488179824 35.7775834055301)</t>
+  </si>
+  <si>
+    <t>POINT(0.897247571684977 35.7370426424581)</t>
+  </si>
+  <si>
+    <t>POINT(0.831216916304804 35.734496102389)</t>
+  </si>
+  <si>
+    <t>POINT(0.850379906291221 35.706155948994)</t>
+  </si>
+  <si>
+    <t>POINT(0.872574637653989 35.6859626495051)</t>
+  </si>
+  <si>
+    <t>POINT(0.893897098382354 35.6941305590397)</t>
+  </si>
+  <si>
+    <t>POINT(0.848064818957281 35.7244556208669)</t>
+  </si>
+  <si>
+    <t>POINT(1.16163277017674 35.988535716141)</t>
+  </si>
+  <si>
+    <t>POINT(1.17263564761445 35.9860568347923)</t>
+  </si>
+  <si>
+    <t>POINT(1.22269359153289 35.9776446455582)</t>
+  </si>
+  <si>
+    <t>POINT(1.14071682937533 35.9694077605404)</t>
+  </si>
+  <si>
+    <t>POINT(1.09377707009685 35.9391100807812)</t>
+  </si>
+  <si>
+    <t>POINT(1.08707729517973 35.9227264378984)</t>
+  </si>
+  <si>
+    <t>POINT(1.11355420581709 35.8768120488295)</t>
+  </si>
+  <si>
+    <t>POINT(1.11101739811062 35.8642049822858)</t>
+  </si>
+  <si>
+    <t>POINT(1.14416220512155 35.8879065313288)</t>
+  </si>
+  <si>
+    <t>POINT(1.20027592934328 35.9190682548089)</t>
+  </si>
+  <si>
+    <t>POINT(1.19949106967715 35.9273569186447)</t>
+  </si>
+  <si>
+    <t>POINT(1.20094756563963 35.9426386053901)</t>
+  </si>
+  <si>
+    <t>POINT(1.23170028067209 35.9559571848116)</t>
+  </si>
+  <si>
+    <t>POINT(1.26929278360027 35.9392773412728)</t>
+  </si>
+  <si>
+    <t>POINT(1.2348921171245 35.9258874950661)</t>
+  </si>
+  <si>
+    <t>POINT(1.25186048188612 35.9183838115577)</t>
+  </si>
+  <si>
+    <t>POINT(1.25736718717704 35.9095854429362)</t>
+  </si>
+  <si>
+    <t>POINT(1.24471545824803 35.903789883006)</t>
+  </si>
+  <si>
+    <t>POINT(1.25116871465156 35.8965271170799)</t>
+  </si>
+  <si>
+    <t>POINT(1.26344792672784 35.8863000111551)</t>
+  </si>
+  <si>
+    <t>POINT(1.27031043157884 35.8781952725751)</t>
+  </si>
+  <si>
+    <t>POINT(1.29238714400092 35.8770955941294)</t>
+  </si>
+  <si>
+    <t>POINT(1.31865317131413 35.873010567789)</t>
+  </si>
+  <si>
+    <t>POINT(1.32461118711579 35.8639313925001)</t>
+  </si>
+  <si>
+    <t>POINT(1.3047178406969 35.8619847102088)</t>
+  </si>
+  <si>
+    <t>POINT(1.32475625012826 35.8518036102724)</t>
+  </si>
+  <si>
+    <t>POINT(1.35441941403659 35.8466845517458)</t>
+  </si>
+  <si>
+    <t>POINT(1.4552650559777 35.8206374036797)</t>
+  </si>
+  <si>
+    <t>POINT(1.27264072909296 35.7630637053597)</t>
+  </si>
+  <si>
+    <t>POINT(1.26778221339905 35.7649074514888)</t>
+  </si>
+  <si>
+    <t>POINT(1.27238082016048 35.7487305345713)</t>
+  </si>
+  <si>
+    <t>POINT(1.25715427367357 35.7362222288637)</t>
+  </si>
+  <si>
+    <t>POINT(1.10740181523869 35.6613169328836)</t>
+  </si>
+  <si>
+    <t>POINT(1.20725941263495 35.6629825056919)</t>
+  </si>
+  <si>
+    <t>POINT(1.37819105359225 35.6776189753913)</t>
+  </si>
+  <si>
+    <t>POINT(1.3598116019664 35.6847194773049)</t>
+  </si>
+  <si>
+    <t>POINT(1.38387152220028 35.6943483150706)</t>
+  </si>
+  <si>
+    <t>POINT(1.4409249636475 35.7032870708961)</t>
+  </si>
+  <si>
+    <t>POINT(1.48259278148265 35.664819074518)</t>
+  </si>
+  <si>
+    <t>POINT(1.46542737752718 35.6605716644908)</t>
+  </si>
+  <si>
+    <t>POINT(1.45675186332561 35.6527701029791)</t>
+  </si>
+  <si>
+    <t>POINT(1.55909718020033 35.6545973646408)</t>
+  </si>
+  <si>
+    <t>POINT(1.5323669234245 35.6394446157335)</t>
+  </si>
+  <si>
+    <t>POINT(1.47488035254351 35.6066928369638)</t>
+  </si>
+  <si>
+    <t>POINT(1.5697951760837 35.6259738352783)</t>
+  </si>
+  <si>
+    <t>POINT(1.6026972241368 35.6198386024736)</t>
+  </si>
+  <si>
+    <t>POINT(1.51807501900461 35.6041430647832)</t>
+  </si>
+  <si>
+    <t>POINT(1.55869273448025 35.5839961283946)</t>
+  </si>
+  <si>
+    <t>POINT(1.59150063847225 35.5887980611326)</t>
+  </si>
+  <si>
+    <t>POINT(1.52313572573085 35.5863917102494)</t>
+  </si>
+  <si>
+    <t>POINT(1.22688978589477 35.5326306207027)</t>
+  </si>
+  <si>
+    <t>POINT(1.24319122185807 35.5379765565649)</t>
+  </si>
+  <si>
+    <t>POINT(1.32400770764572 35.5654818083765)</t>
+  </si>
+  <si>
+    <t>POINT(1.37523378961095 35.5473469335875)</t>
+  </si>
+  <si>
+    <t>POINT(1.35802851734182 35.5474552748441)</t>
+  </si>
+  <si>
+    <t>POINT(1.36750389555831 35.5561832083987)</t>
+  </si>
+  <si>
+    <t>POINT(1.39128904394855 35.5590402021343)</t>
+  </si>
+  <si>
+    <t>POINT(1.39386681110548 35.5641873777303)</t>
+  </si>
+  <si>
+    <t>POINT(1.42690322972427 35.5534927540003)</t>
+  </si>
+  <si>
+    <t>POINT(1.41233750918427 35.5421700353883)</t>
+  </si>
+  <si>
+    <t>POINT(1.40558768632971 35.5387349537553)</t>
+  </si>
+  <si>
+    <t>POINT(1.41242435588039 35.5337653307465)</t>
+  </si>
+  <si>
+    <t>POINT(1.31890522848999 35.5235344476562)</t>
+  </si>
+  <si>
+    <t>POINT(1.29353709743046 35.5260181794674)</t>
+  </si>
+  <si>
+    <t>POINT(1.5345448598366 35.5704945904265)</t>
+  </si>
+  <si>
+    <t>POINT(1.47085911589221 35.5534779052765)</t>
+  </si>
+  <si>
+    <t>POINT(1.51849075550117 35.5559300818282)</t>
+  </si>
+  <si>
+    <t>POINT(1.49663673860344 35.5435938210248)</t>
+  </si>
+  <si>
+    <t>POINT(1.54900373187962 35.5308445615362)</t>
+  </si>
+  <si>
+    <t>POINT(1.54077190757413 35.5490396076061)</t>
+  </si>
+  <si>
+    <t>POINT(1.57498572376052 35.5601389795229)</t>
+  </si>
+  <si>
+    <t>POINT(1.51730182365333 35.5003905871312)</t>
+  </si>
+  <si>
+    <t>POINT(1.57889454908116 35.4748717223084)</t>
+  </si>
+  <si>
+    <t>POINT(1.52122178183795 35.4609069258172)</t>
+  </si>
+  <si>
+    <t>POINT(1.49268912242085 35.463177943899)</t>
+  </si>
+  <si>
+    <t>POINT(1.43706408813029 35.4571829905455)</t>
   </si>
   <si>
     <t>Center Point</t>
@@ -1787,28 +2174,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="22">
-    <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{37FAC951-619E-4F08-8FFC-0525624FDCE4}"/>
-    <cellStyle name="20% - Accent6 2" xfId="9" xr:uid="{15E839CA-F639-41F9-BA41-676070C98443}"/>
-    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{F012F701-9C43-4D11-AA3F-FE6361626EBB}"/>
-    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{0C262611-71B1-4413-BE5F-5796976C2011}"/>
-    <cellStyle name="40% - Accent5 2" xfId="3" xr:uid="{75969F24-2537-4B17-8601-D76C97E1B5C5}"/>
-    <cellStyle name="40% - Accent6 2" xfId="4" xr:uid="{8B0E3871-C383-45F9-91ED-917072626FF3}"/>
-    <cellStyle name="60% - Accent1 2" xfId="12" xr:uid="{5DC8CE23-B937-40A2-B151-737ACD0046CD}"/>
-    <cellStyle name="60% - Accent4 2" xfId="13" xr:uid="{4ED101F6-28B2-41B4-9D17-AE2F7656A8C0}"/>
-    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{A6DDF2F6-8007-4F9F-A974-048FBD924E2F}"/>
-    <cellStyle name="Accent1 2" xfId="16" xr:uid="{DCA7ECCB-B85D-4029-BEFA-759CE8E4438D}"/>
-    <cellStyle name="Accent2 2" xfId="11" xr:uid="{B7B5C5CD-C9A1-41BA-9648-048A708F7149}"/>
-    <cellStyle name="Accent3 2" xfId="15" xr:uid="{CA682D52-E467-4B89-BE17-63B80543B67D}"/>
-    <cellStyle name="Accent5 2" xfId="14" xr:uid="{74F2FDDC-99EC-4BC3-8E95-E44B22A44F42}"/>
-    <cellStyle name="Accent6 2" xfId="7" xr:uid="{D834FF5D-D923-4BD4-98C6-701047C77AFB}"/>
-    <cellStyle name="Bad 2" xfId="5" xr:uid="{AD170855-8FA2-46C8-856E-D89300F3BC3C}"/>
+    <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{8219404F-EFF7-4247-87F9-938B4E3ED7B6}"/>
+    <cellStyle name="20% - Accent6 2" xfId="9" xr:uid="{DA3FD366-F5E6-4D5B-9EAC-38B338AC25A5}"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{083FB63D-45BB-4980-8C7B-F50A14697A56}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{809FB462-040F-49C5-AD07-B9121E6A02F3}"/>
+    <cellStyle name="40% - Accent5 2" xfId="3" xr:uid="{E944BAEB-F633-48DA-A894-7B6EC4D162FE}"/>
+    <cellStyle name="40% - Accent6 2" xfId="4" xr:uid="{7E33DEF6-5E6A-4716-9257-A01CF912A39F}"/>
+    <cellStyle name="60% - Accent1 2" xfId="12" xr:uid="{5983442B-51F6-427A-AA46-26EEFE49DA5C}"/>
+    <cellStyle name="60% - Accent4 2" xfId="13" xr:uid="{522B2A1E-0AF0-4828-AFC6-6866FD920109}"/>
+    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{BC1B629E-FAD8-46F8-B2BF-868A98B71BB4}"/>
+    <cellStyle name="Accent1 2" xfId="16" xr:uid="{F7B8C333-1FC1-4E5C-929C-656D7A4D3EF8}"/>
+    <cellStyle name="Accent2 2" xfId="11" xr:uid="{A5BBC925-A1FE-424E-9D01-4DE7FFA31186}"/>
+    <cellStyle name="Accent3 2" xfId="15" xr:uid="{FBA52D71-3184-4964-B6CE-FCCC1568E7F2}"/>
+    <cellStyle name="Accent5 2" xfId="14" xr:uid="{4D118649-9AC8-43D2-B67E-361BCFD8BB13}"/>
+    <cellStyle name="Accent6 2" xfId="7" xr:uid="{FCF0D4CF-880C-48A8-ADB9-BF9773C93DE9}"/>
+    <cellStyle name="Bad 2" xfId="5" xr:uid="{30220AA7-6B87-47B1-84DF-13A7BD51F77A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5896DE07-263F-4E5E-9064-33BED69111CB}"/>
-    <cellStyle name="Normal 2 2" xfId="18" xr:uid="{8FFE9999-6828-40B6-B1AE-E469B880B97B}"/>
-    <cellStyle name="Normal 3" xfId="19" xr:uid="{E11826EB-2BF7-4BEC-8A04-3B50AB137DAA}"/>
-    <cellStyle name="Normal 4" xfId="20" xr:uid="{FEA23B00-31D3-46C4-BB50-69CC6FF543D0}"/>
-    <cellStyle name="Normal 5" xfId="21" xr:uid="{1A3A4A14-9803-4E94-881A-9D1526FE935F}"/>
-    <cellStyle name="Normal 6" xfId="1" xr:uid="{9AF6441B-D6B0-4EE1-9908-DF6D94A8D795}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B980F64A-C996-4C53-BBE6-A9E36CA3A985}"/>
+    <cellStyle name="Normal 2 2" xfId="18" xr:uid="{1571B6DF-BF46-4547-A6CF-2E764C74CA58}"/>
+    <cellStyle name="Normal 3" xfId="19" xr:uid="{B112F572-E145-476E-9B0D-E9A8870EB26C}"/>
+    <cellStyle name="Normal 4" xfId="20" xr:uid="{E952E3B0-3CB9-4E92-AB13-86BC0C06CE26}"/>
+    <cellStyle name="Normal 5" xfId="21" xr:uid="{E33BD180-C261-469A-86E3-D96ACACCE175}"/>
+    <cellStyle name="Normal 6" xfId="1" xr:uid="{6021DE93-6E44-4B78-A544-92D673F4CB41}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2122,90 +2509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CU183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="55" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="6" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="8.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:99" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="48" t="s">
-        <v>302</v>
+        <v>431</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
@@ -2215,7 +2528,7 @@
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
       <c r="J1" s="39" t="s">
-        <v>303</v>
+        <v>432</v>
       </c>
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
@@ -2227,13 +2540,13 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
       <c r="T1" s="40" t="s">
-        <v>304</v>
+        <v>433</v>
       </c>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="41" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
@@ -2244,7 +2557,7 @@
       <c r="AE1" s="41"/>
       <c r="AF1" s="41"/>
       <c r="AG1" s="46" t="s">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="AH1" s="46"/>
       <c r="AI1" s="46"/>
@@ -2279,7 +2592,7 @@
       <c r="BL1" s="46"/>
       <c r="BM1" s="46"/>
       <c r="BN1" s="54" t="s">
-        <v>307</v>
+        <v>436</v>
       </c>
       <c r="BO1" s="54"/>
       <c r="BP1" s="54"/>
@@ -2301,7 +2614,7 @@
       <c r="CF1" s="54"/>
       <c r="CG1" s="54"/>
       <c r="CH1" s="32" t="s">
-        <v>308</v>
+        <v>437</v>
       </c>
       <c r="CI1" s="32"/>
       <c r="CJ1" s="32"/>
@@ -2316,7 +2629,7 @@
       <c r="CS1" s="32"/>
       <c r="CT1" s="32"/>
       <c r="CU1" s="2" t="s">
-        <v>309</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:99" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2324,7 +2637,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="47" t="s">
-        <v>310</v>
+        <v>439</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
@@ -2332,20 +2645,20 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="33" t="s">
-        <v>311</v>
+        <v>440</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="4"/>
       <c r="M2" s="34" t="s">
-        <v>312</v>
+        <v>441</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="35" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="36" t="s">
-        <v>314</v>
+        <v>443</v>
       </c>
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
@@ -2359,24 +2672,24 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="36" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="AD2" s="36"/>
       <c r="AE2" s="37" t="s">
-        <v>316</v>
+        <v>445</v>
       </c>
       <c r="AF2" s="37"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="38" t="s">
-        <v>317</v>
+        <v>446</v>
       </c>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
       <c r="AL2" s="38"/>
       <c r="AM2" s="15"/>
       <c r="AN2" s="52" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="AO2" s="52"/>
       <c r="AP2" s="52"/>
@@ -2386,7 +2699,7 @@
       <c r="AT2" s="52"/>
       <c r="AU2" s="52"/>
       <c r="AV2" s="34" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
@@ -2398,12 +2711,12 @@
       <c r="BD2" s="34"/>
       <c r="BE2" s="34"/>
       <c r="BF2" s="53" t="s">
-        <v>320</v>
+        <v>449</v>
       </c>
       <c r="BG2" s="53"/>
       <c r="BH2" s="53"/>
       <c r="BI2" s="50" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
       <c r="BJ2" s="50"/>
       <c r="BK2" s="50"/>
@@ -2412,7 +2725,7 @@
       <c r="BN2" s="9"/>
       <c r="BO2" s="9"/>
       <c r="BP2" s="43" t="s">
-        <v>322</v>
+        <v>451</v>
       </c>
       <c r="BQ2" s="43"/>
       <c r="BR2" s="43"/>
@@ -2424,34 +2737,34 @@
       <c r="BX2" s="43"/>
       <c r="BY2" s="43"/>
       <c r="BZ2" s="44" t="s">
-        <v>323</v>
+        <v>452</v>
       </c>
       <c r="CA2" s="44"/>
       <c r="CB2" s="44"/>
       <c r="CC2" s="14"/>
       <c r="CD2" s="51" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="CE2" s="51"/>
       <c r="CF2" s="51"/>
       <c r="CG2" s="16"/>
       <c r="CH2" s="10"/>
       <c r="CI2" s="45" t="s">
-        <v>325</v>
+        <v>454</v>
       </c>
       <c r="CJ2" s="45"/>
       <c r="CK2" s="49" t="s">
-        <v>326</v>
+        <v>455</v>
       </c>
       <c r="CL2" s="49"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="42" t="s">
-        <v>327</v>
+        <v>456</v>
       </c>
       <c r="CO2" s="42"/>
       <c r="CP2" s="42"/>
       <c r="CQ2" s="31" t="s">
-        <v>328</v>
+        <v>457</v>
       </c>
       <c r="CR2" s="31"/>
       <c r="CS2" s="31"/>
@@ -2463,298 +2776,298 @@
         <v>0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>330</v>
+        <v>459</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>331</v>
+        <v>460</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>332</v>
+        <v>461</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>333</v>
+        <v>462</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>335</v>
+        <v>464</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>336</v>
+        <v>465</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>337</v>
+        <v>466</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>338</v>
+        <v>467</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>339</v>
+        <v>468</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>340</v>
+        <v>469</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>191</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>341</v>
+        <v>470</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>343</v>
+        <v>472</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>344</v>
+        <v>473</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>346</v>
+        <v>475</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>351</v>
+        <v>480</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>353</v>
+        <v>482</v>
       </c>
       <c r="AC3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>354</v>
+        <v>483</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>355</v>
+        <v>484</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>356</v>
+        <v>485</v>
       </c>
       <c r="AG3" s="22" t="s">
-        <v>357</v>
+        <v>486</v>
       </c>
       <c r="AH3" s="22" t="s">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="AJ3" s="22" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
       <c r="AK3" s="17" t="s">
-        <v>361</v>
+        <v>490</v>
       </c>
       <c r="AL3" s="21" t="s">
-        <v>362</v>
+        <v>491</v>
       </c>
       <c r="AM3" s="12" t="s">
-        <v>363</v>
+        <v>492</v>
       </c>
       <c r="AN3" s="12" t="s">
-        <v>364</v>
+        <v>493</v>
       </c>
       <c r="AO3" s="12" t="s">
-        <v>365</v>
+        <v>494</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>366</v>
+        <v>495</v>
       </c>
       <c r="AQ3" s="12" t="s">
-        <v>367</v>
+        <v>496</v>
       </c>
       <c r="AR3" s="12" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="AS3" s="12" t="s">
-        <v>369</v>
+        <v>498</v>
       </c>
       <c r="AT3" s="12" t="s">
-        <v>370</v>
+        <v>499</v>
       </c>
       <c r="AU3" s="12" t="s">
-        <v>371</v>
+        <v>500</v>
       </c>
       <c r="AV3" s="23" t="s">
-        <v>372</v>
+        <v>501</v>
       </c>
       <c r="AW3" s="24" t="s">
-        <v>373</v>
+        <v>502</v>
       </c>
       <c r="AX3" s="24" t="s">
-        <v>374</v>
+        <v>503</v>
       </c>
       <c r="AY3" s="24" t="s">
-        <v>375</v>
+        <v>504</v>
       </c>
       <c r="AZ3" s="25" t="s">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="BA3" s="24" t="s">
-        <v>377</v>
+        <v>506</v>
       </c>
       <c r="BB3" s="24" t="s">
-        <v>378</v>
+        <v>507</v>
       </c>
       <c r="BC3" s="26" t="s">
-        <v>379</v>
+        <v>508</v>
       </c>
       <c r="BD3" s="17" t="s">
-        <v>380</v>
+        <v>509</v>
       </c>
       <c r="BE3" s="18" t="s">
-        <v>381</v>
+        <v>510</v>
       </c>
       <c r="BF3" s="12" t="s">
-        <v>382</v>
+        <v>511</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>383</v>
+        <v>512</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>384</v>
+        <v>513</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>385</v>
+        <v>514</v>
       </c>
       <c r="BJ3" s="27" t="s">
-        <v>386</v>
+        <v>515</v>
       </c>
       <c r="BK3" s="28" t="s">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="BL3" s="29" t="s">
-        <v>388</v>
+        <v>517</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>389</v>
+        <v>518</v>
       </c>
       <c r="BN3" s="27" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="BO3" s="29" t="s">
-        <v>391</v>
+        <v>520</v>
       </c>
       <c r="BP3" s="12" t="s">
-        <v>392</v>
+        <v>521</v>
       </c>
       <c r="BQ3" s="27" t="s">
-        <v>393</v>
+        <v>522</v>
       </c>
       <c r="BR3" s="29" t="s">
-        <v>394</v>
+        <v>523</v>
       </c>
       <c r="BS3" s="19" t="s">
-        <v>395</v>
+        <v>524</v>
       </c>
       <c r="BT3" s="19" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
       <c r="BU3" s="19" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="BV3" s="19" t="s">
-        <v>398</v>
+        <v>527</v>
       </c>
       <c r="BW3" s="19" t="s">
-        <v>399</v>
+        <v>528</v>
       </c>
       <c r="BX3" s="23" t="s">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="BY3" s="26" t="s">
-        <v>401</v>
+        <v>530</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>402</v>
+        <v>531</v>
       </c>
       <c r="CA3" s="27" t="s">
-        <v>403</v>
+        <v>532</v>
       </c>
       <c r="CB3" s="29" t="s">
-        <v>404</v>
+        <v>533</v>
       </c>
       <c r="CC3" s="12" t="s">
-        <v>405</v>
+        <v>534</v>
       </c>
       <c r="CD3" s="12" t="s">
-        <v>406</v>
+        <v>535</v>
       </c>
       <c r="CE3" s="12" t="s">
-        <v>407</v>
+        <v>536</v>
       </c>
       <c r="CF3" s="12" t="s">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="CG3" s="12" t="s">
-        <v>409</v>
+        <v>538</v>
       </c>
       <c r="CH3" s="30" t="s">
-        <v>410</v>
+        <v>539</v>
       </c>
       <c r="CI3" s="12" t="s">
-        <v>411</v>
+        <v>540</v>
       </c>
       <c r="CJ3" s="12" t="s">
-        <v>412</v>
+        <v>541</v>
       </c>
       <c r="CK3" s="12" t="s">
-        <v>413</v>
+        <v>542</v>
       </c>
       <c r="CL3" s="12" t="s">
-        <v>414</v>
+        <v>543</v>
       </c>
       <c r="CM3" s="12" t="s">
-        <v>415</v>
+        <v>544</v>
       </c>
       <c r="CN3" s="12" t="s">
-        <v>416</v>
+        <v>545</v>
       </c>
       <c r="CO3" s="12" t="s">
-        <v>417</v>
+        <v>546</v>
       </c>
       <c r="CP3" s="12" t="s">
-        <v>418</v>
+        <v>547</v>
       </c>
       <c r="CQ3" s="12" t="s">
-        <v>419</v>
+        <v>548</v>
       </c>
       <c r="CR3" s="12" t="s">
-        <v>420</v>
+        <v>549</v>
       </c>
       <c r="CS3" s="12" t="s">
-        <v>421</v>
+        <v>550</v>
       </c>
       <c r="CT3" s="12" t="s">
-        <v>422</v>
+        <v>551</v>
       </c>
       <c r="CU3" s="12" t="s">
-        <v>423</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:99" x14ac:dyDescent="0.3">
@@ -2791,20 +3104,53 @@
       <c r="N4" t="s">
         <v>192</v>
       </c>
+      <c r="T4" t="s">
+        <v>294</v>
+      </c>
       <c r="U4" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V4" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W4" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z4" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG4" t="s">
-        <v>295</v>
+        <v>424</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:99" x14ac:dyDescent="0.3">
@@ -2858,26 +3204,53 @@
       <c r="P6" t="s">
         <v>293</v>
       </c>
+      <c r="T6" t="s">
+        <v>295</v>
+      </c>
       <c r="U6" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V6" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W6" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z6" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG6" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV6" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW6" t="s">
         <v>293</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:99" x14ac:dyDescent="0.3">
@@ -2920,26 +3293,53 @@
       <c r="P7" t="s">
         <v>293</v>
       </c>
+      <c r="T7" t="s">
+        <v>296</v>
+      </c>
       <c r="U7" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V7" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W7" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z7" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG7" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV7" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW7" t="s">
         <v>293</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:99" x14ac:dyDescent="0.3">
@@ -2976,20 +3376,47 @@
       <c r="N8" t="s">
         <v>195</v>
       </c>
+      <c r="T8" t="s">
+        <v>297</v>
+      </c>
       <c r="U8" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V8" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W8" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z8" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG8" t="s">
-        <v>295</v>
+        <v>424</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:99" x14ac:dyDescent="0.3">
@@ -3037,20 +3464,47 @@
       <c r="N10" t="s">
         <v>196</v>
       </c>
+      <c r="T10" t="s">
+        <v>298</v>
+      </c>
       <c r="U10" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V10" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W10" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z10" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG10" t="s">
-        <v>295</v>
+        <v>424</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:99" x14ac:dyDescent="0.3">
@@ -3093,26 +3547,53 @@
       <c r="P11" t="s">
         <v>293</v>
       </c>
+      <c r="T11" t="s">
+        <v>299</v>
+      </c>
       <c r="U11" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V11" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W11" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z11" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG11" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV11" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW11" t="s">
         <v>293</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:99" x14ac:dyDescent="0.3">
@@ -3155,26 +3636,53 @@
       <c r="P12" t="s">
         <v>293</v>
       </c>
+      <c r="T12" t="s">
+        <v>300</v>
+      </c>
       <c r="U12" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V12" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W12" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z12" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG12" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV12" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW12" t="s">
         <v>293</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:99" x14ac:dyDescent="0.3">
@@ -3217,26 +3725,53 @@
       <c r="P13" t="s">
         <v>293</v>
       </c>
+      <c r="T13" t="s">
+        <v>301</v>
+      </c>
       <c r="U13" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V13" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W13" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z13" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG13" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV13" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW13" t="s">
         <v>293</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:99" x14ac:dyDescent="0.3">
@@ -3279,26 +3814,53 @@
       <c r="P14" t="s">
         <v>293</v>
       </c>
+      <c r="T14" t="s">
+        <v>302</v>
+      </c>
       <c r="U14" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V14" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W14" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z14" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG14" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV14" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW14" t="s">
         <v>293</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:99" x14ac:dyDescent="0.3">
@@ -3341,26 +3903,53 @@
       <c r="P15" t="s">
         <v>293</v>
       </c>
+      <c r="T15" t="s">
+        <v>303</v>
+      </c>
       <c r="U15" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V15" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W15" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z15" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG15" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV15" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW15" t="s">
         <v>293</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:99" x14ac:dyDescent="0.3">
@@ -3374,7 +3963,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -3414,29 +4003,56 @@
       <c r="P17" t="s">
         <v>293</v>
       </c>
+      <c r="T17" t="s">
+        <v>304</v>
+      </c>
       <c r="U17" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V17" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W17" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z17" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG17" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV17" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW17" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN17" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
@@ -3447,7 +4063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -3487,29 +4103,32 @@
       <c r="P19" t="s">
         <v>293</v>
       </c>
+      <c r="T19" t="s">
+        <v>305</v>
+      </c>
       <c r="U19" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V19" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W19" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z19" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG19" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV19" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -3520,7 +4139,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -3554,23 +4173,50 @@
       <c r="N21" t="s">
         <v>202</v>
       </c>
+      <c r="T21" t="s">
+        <v>306</v>
+      </c>
       <c r="U21" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V21" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W21" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z21" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -3604,23 +4250,50 @@
       <c r="N22" t="s">
         <v>203</v>
       </c>
+      <c r="T22" t="s">
+        <v>307</v>
+      </c>
       <c r="U22" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V22" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W22" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z22" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -3654,23 +4327,50 @@
       <c r="N23" t="s">
         <v>203</v>
       </c>
+      <c r="T23" t="s">
+        <v>308</v>
+      </c>
       <c r="U23" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V23" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W23" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z23" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -3704,23 +4404,50 @@
       <c r="N24" t="s">
         <v>203</v>
       </c>
+      <c r="T24" t="s">
+        <v>309</v>
+      </c>
       <c r="U24" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V24" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W24" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z24" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -3754,23 +4481,50 @@
       <c r="N25" t="s">
         <v>203</v>
       </c>
+      <c r="T25" t="s">
+        <v>310</v>
+      </c>
       <c r="U25" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V25" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W25" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z25" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -3804,23 +4558,50 @@
       <c r="N26" t="s">
         <v>203</v>
       </c>
+      <c r="T26" t="s">
+        <v>311</v>
+      </c>
       <c r="U26" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V26" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W26" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z26" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -3854,23 +4635,50 @@
       <c r="N27" t="s">
         <v>203</v>
       </c>
+      <c r="T27" t="s">
+        <v>312</v>
+      </c>
       <c r="U27" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V27" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W27" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z27" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -3904,23 +4712,50 @@
       <c r="N28" t="s">
         <v>203</v>
       </c>
+      <c r="T28" t="s">
+        <v>313</v>
+      </c>
       <c r="U28" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V28" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W28" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z28" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -3954,8 +4789,11 @@
       <c r="N29" t="s">
         <v>204</v>
       </c>
+      <c r="T29" t="s">
+        <v>314</v>
+      </c>
       <c r="U29" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V29" t="s">
         <v>293</v>
@@ -3964,13 +4802,19 @@
         <v>293</v>
       </c>
       <c r="Z29" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG29" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI29" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -4010,29 +4854,56 @@
       <c r="P30" t="s">
         <v>293</v>
       </c>
+      <c r="T30" t="s">
+        <v>315</v>
+      </c>
       <c r="U30" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V30" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W30" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z30" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG30" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV30" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW30" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN30" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -4072,29 +4943,56 @@
       <c r="P31" t="s">
         <v>293</v>
       </c>
+      <c r="T31" t="s">
+        <v>316</v>
+      </c>
       <c r="U31" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V31" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z31" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG31" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV31" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW31" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN31" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -4134,29 +5032,56 @@
       <c r="P32" t="s">
         <v>293</v>
       </c>
+      <c r="T32" t="s">
+        <v>317</v>
+      </c>
       <c r="U32" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V32" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W32" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z32" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG32" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV32" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW32" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN32" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24</v>
       </c>
@@ -4167,7 +5092,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25</v>
       </c>
@@ -4207,29 +5132,56 @@
       <c r="P34" t="s">
         <v>293</v>
       </c>
+      <c r="T34" t="s">
+        <v>318</v>
+      </c>
       <c r="U34" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V34" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W34" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z34" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG34" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV34" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW34" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN34" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26</v>
       </c>
@@ -4269,29 +5221,56 @@
       <c r="P35" t="s">
         <v>293</v>
       </c>
+      <c r="T35" t="s">
+        <v>319</v>
+      </c>
       <c r="U35" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V35" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z35" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG35" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV35" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW35" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN35" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>27</v>
       </c>
@@ -4331,29 +5310,56 @@
       <c r="P36" t="s">
         <v>293</v>
       </c>
+      <c r="T36" t="s">
+        <v>320</v>
+      </c>
       <c r="U36" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V36" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z36" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG36" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV36" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW36" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN36" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28</v>
       </c>
@@ -4393,29 +5399,56 @@
       <c r="P37" t="s">
         <v>293</v>
       </c>
+      <c r="T37" t="s">
+        <v>321</v>
+      </c>
       <c r="U37" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V37" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W37" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z37" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG37" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV37" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW37" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN37" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>29</v>
       </c>
@@ -4455,29 +5488,56 @@
       <c r="P38" t="s">
         <v>293</v>
       </c>
+      <c r="T38" t="s">
+        <v>322</v>
+      </c>
       <c r="U38" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V38" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W38" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z38" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG38" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV38" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW38" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN38" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30</v>
       </c>
@@ -4517,29 +5577,56 @@
       <c r="P39" t="s">
         <v>293</v>
       </c>
+      <c r="T39" t="s">
+        <v>323</v>
+      </c>
       <c r="U39" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V39" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W39" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z39" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG39" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV39" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW39" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN39" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>31</v>
       </c>
@@ -4579,29 +5666,56 @@
       <c r="P40" t="s">
         <v>293</v>
       </c>
+      <c r="T40" t="s">
+        <v>324</v>
+      </c>
       <c r="U40" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V40" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W40" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z40" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG40" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV40" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW40" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN40" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>32</v>
       </c>
@@ -4641,29 +5755,56 @@
       <c r="P41" t="s">
         <v>293</v>
       </c>
+      <c r="T41" t="s">
+        <v>325</v>
+      </c>
       <c r="U41" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V41" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W41" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z41" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG41" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV41" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW41" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN41" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>33</v>
       </c>
@@ -4703,29 +5844,56 @@
       <c r="P42" t="s">
         <v>293</v>
       </c>
+      <c r="T42" t="s">
+        <v>326</v>
+      </c>
       <c r="U42" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V42" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W42" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z42" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG42" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV42" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW42" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN42" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>34</v>
       </c>
@@ -4765,29 +5933,38 @@
       <c r="P43" t="s">
         <v>293</v>
       </c>
+      <c r="T43" t="s">
+        <v>327</v>
+      </c>
       <c r="U43" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V43" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W43" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z43" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG43" t="s">
-        <v>296</v>
+        <v>425</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>429</v>
       </c>
       <c r="AV43" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW43" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35</v>
       </c>
@@ -4827,29 +6004,38 @@
       <c r="P44" t="s">
         <v>293</v>
       </c>
+      <c r="T44" t="s">
+        <v>328</v>
+      </c>
       <c r="U44" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V44" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W44" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z44" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG44" t="s">
-        <v>296</v>
+        <v>425</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>429</v>
       </c>
       <c r="AV44" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW44" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
@@ -4883,23 +6069,26 @@
       <c r="N45" t="s">
         <v>211</v>
       </c>
+      <c r="T45" t="s">
+        <v>329</v>
+      </c>
       <c r="U45" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V45" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W45" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z45" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG45" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>37</v>
       </c>
@@ -4933,8 +6122,11 @@
       <c r="N46" t="s">
         <v>212</v>
       </c>
+      <c r="T46" t="s">
+        <v>330</v>
+      </c>
       <c r="U46" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V46" t="s">
         <v>293</v>
@@ -4943,13 +6135,13 @@
         <v>293</v>
       </c>
       <c r="Z46" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG46" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37</v>
       </c>
@@ -4960,7 +6152,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>38</v>
       </c>
@@ -4994,23 +6186,50 @@
       <c r="N48" t="s">
         <v>213</v>
       </c>
+      <c r="T48" t="s">
+        <v>331</v>
+      </c>
       <c r="U48" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V48" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W48" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z48" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG48" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP48" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR48" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA48" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>38</v>
       </c>
@@ -5021,7 +6240,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>39</v>
       </c>
@@ -5055,29 +6274,56 @@
       <c r="N50" t="s">
         <v>214</v>
       </c>
+      <c r="T50" t="s">
+        <v>332</v>
+      </c>
       <c r="U50" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V50" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W50" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z50" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG50" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AI50" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="AJ50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO50" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP50" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>40</v>
       </c>
@@ -5117,8 +6363,11 @@
       <c r="P51" t="s">
         <v>293</v>
       </c>
+      <c r="T51" t="s">
+        <v>333</v>
+      </c>
       <c r="U51" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V51" t="s">
         <v>293</v>
@@ -5127,19 +6376,19 @@
         <v>293</v>
       </c>
       <c r="Z51" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s">
         <v>293</v>
       </c>
       <c r="AV51" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW51" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5173,23 +6422,50 @@
       <c r="N52" t="s">
         <v>216</v>
       </c>
+      <c r="T52" t="s">
+        <v>334</v>
+      </c>
       <c r="U52" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V52" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W52" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR52" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>42</v>
       </c>
@@ -5223,23 +6499,26 @@
       <c r="N53" t="s">
         <v>217</v>
       </c>
+      <c r="T53" t="s">
+        <v>335</v>
+      </c>
       <c r="U53" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V53" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W53" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z53" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>43</v>
       </c>
@@ -5279,35 +6558,62 @@
       <c r="P54" t="s">
         <v>293</v>
       </c>
+      <c r="T54" t="s">
+        <v>336</v>
+      </c>
       <c r="U54" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V54" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W54" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z54" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AI54" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="AJ54" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="AV54" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW54" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN54" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO54" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP54" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ54" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR54" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA54" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>43</v>
       </c>
@@ -5318,7 +6624,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>44</v>
       </c>
@@ -5352,23 +6658,50 @@
       <c r="N56" t="s">
         <v>219</v>
       </c>
+      <c r="T56" t="s">
+        <v>337</v>
+      </c>
       <c r="U56" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V56" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W56" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z56" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG56" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN56" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP56" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ56" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA56" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>45</v>
       </c>
@@ -5402,23 +6735,50 @@
       <c r="N57" t="s">
         <v>220</v>
       </c>
+      <c r="T57" t="s">
+        <v>338</v>
+      </c>
       <c r="U57" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V57" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W57" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z57" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO57" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ57" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA57" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>46</v>
       </c>
@@ -5458,29 +6818,32 @@
       <c r="P58" t="s">
         <v>293</v>
       </c>
+      <c r="T58" t="s">
+        <v>339</v>
+      </c>
       <c r="U58" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V58" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W58" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z58" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV58" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW58" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>46</v>
       </c>
@@ -5491,7 +6854,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>47</v>
       </c>
@@ -5531,29 +6894,56 @@
       <c r="P60" t="s">
         <v>293</v>
       </c>
+      <c r="T60" t="s">
+        <v>340</v>
+      </c>
       <c r="U60" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V60" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W60" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z60" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV60" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW60" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN60" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO60" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP60" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR60" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ60" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA60" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>47</v>
       </c>
@@ -5564,7 +6954,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>48</v>
       </c>
@@ -5604,29 +6994,56 @@
       <c r="P62" t="s">
         <v>293</v>
       </c>
+      <c r="T62" t="s">
+        <v>341</v>
+      </c>
       <c r="U62" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V62" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W62" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z62" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG62" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV62" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW62" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN62" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP62" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ62" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA62" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>48</v>
       </c>
@@ -5637,7 +7054,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>49</v>
       </c>
@@ -5677,29 +7094,56 @@
       <c r="P64" t="s">
         <v>293</v>
       </c>
+      <c r="T64" t="s">
+        <v>342</v>
+      </c>
       <c r="U64" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V64" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W64" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z64" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV64" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW64" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN64" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO64" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP64" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR64" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ64" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA64" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>49</v>
       </c>
@@ -5710,7 +7154,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>50</v>
       </c>
@@ -5750,29 +7194,32 @@
       <c r="P66" t="s">
         <v>293</v>
       </c>
+      <c r="T66" t="s">
+        <v>343</v>
+      </c>
       <c r="U66" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V66" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W66" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z66" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG66" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV66" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW66" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>50</v>
       </c>
@@ -5783,7 +7230,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>51</v>
       </c>
@@ -5823,29 +7270,32 @@
       <c r="P68" t="s">
         <v>293</v>
       </c>
+      <c r="T68" t="s">
+        <v>344</v>
+      </c>
       <c r="U68" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V68" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W68" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z68" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG68" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV68" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW68" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>51</v>
       </c>
@@ -5856,7 +7306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>52</v>
       </c>
@@ -5896,29 +7346,56 @@
       <c r="P70" t="s">
         <v>293</v>
       </c>
+      <c r="T70" t="s">
+        <v>345</v>
+      </c>
       <c r="U70" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V70" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W70" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z70" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG70" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV70" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW70" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN70" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ70" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ70" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>53</v>
       </c>
@@ -5952,23 +7429,32 @@
       <c r="N71" t="s">
         <v>228</v>
       </c>
+      <c r="T71" t="s">
+        <v>346</v>
+      </c>
       <c r="U71" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V71" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W71" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z71" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>54</v>
       </c>
@@ -6002,23 +7488,32 @@
       <c r="N72" t="s">
         <v>229</v>
       </c>
+      <c r="T72" t="s">
+        <v>347</v>
+      </c>
       <c r="U72" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V72" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W72" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z72" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG72" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>55</v>
       </c>
@@ -6052,23 +7547,26 @@
       <c r="N73" t="s">
         <v>230</v>
       </c>
+      <c r="T73" t="s">
+        <v>348</v>
+      </c>
       <c r="U73" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V73" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W73" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z73" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG73" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>56</v>
       </c>
@@ -6102,23 +7600,50 @@
       <c r="N74" t="s">
         <v>231</v>
       </c>
+      <c r="T74" t="s">
+        <v>349</v>
+      </c>
       <c r="U74" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V74" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W74" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z74" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG74" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN74" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO74" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP74" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ74" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR74" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ74" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA74" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB74" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>57</v>
       </c>
@@ -6152,23 +7677,32 @@
       <c r="N75" t="s">
         <v>232</v>
       </c>
+      <c r="T75" t="s">
+        <v>350</v>
+      </c>
       <c r="U75" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V75" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W75" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z75" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>58</v>
       </c>
@@ -6202,23 +7736,50 @@
       <c r="N76" t="s">
         <v>233</v>
       </c>
+      <c r="T76" t="s">
+        <v>351</v>
+      </c>
       <c r="U76" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V76" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W76" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z76" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG76" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN76" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO76" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP76" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ76" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR76" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ76" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA76" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB76" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>58</v>
       </c>
@@ -6229,7 +7790,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>59</v>
       </c>
@@ -6263,8 +7824,11 @@
       <c r="N78" t="s">
         <v>234</v>
       </c>
+      <c r="T78" t="s">
+        <v>352</v>
+      </c>
       <c r="U78" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V78" t="s">
         <v>293</v>
@@ -6273,13 +7837,19 @@
         <v>293</v>
       </c>
       <c r="Z78" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG78" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI78" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>60</v>
       </c>
@@ -6313,23 +7883,32 @@
       <c r="N79" t="s">
         <v>235</v>
       </c>
+      <c r="T79" t="s">
+        <v>353</v>
+      </c>
       <c r="U79" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V79" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W79" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z79" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>60</v>
       </c>
@@ -6340,7 +7919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>61</v>
       </c>
@@ -6374,23 +7953,56 @@
       <c r="N81" t="s">
         <v>236</v>
       </c>
+      <c r="T81" t="s">
+        <v>354</v>
+      </c>
       <c r="U81" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V81" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W81" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z81" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG81" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN81" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO81" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP81" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ81" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR81" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ81" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA81" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB81" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>61</v>
       </c>
@@ -6401,7 +8013,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>62</v>
       </c>
@@ -6435,8 +8047,11 @@
       <c r="N83" t="s">
         <v>237</v>
       </c>
+      <c r="T83" t="s">
+        <v>355</v>
+      </c>
       <c r="U83" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V83" t="s">
         <v>293</v>
@@ -6445,13 +8060,19 @@
         <v>293</v>
       </c>
       <c r="Z83" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG83" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI83" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>62</v>
       </c>
@@ -6462,7 +8083,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>63</v>
       </c>
@@ -6502,35 +8123,38 @@
       <c r="P85" t="s">
         <v>293</v>
       </c>
+      <c r="T85" t="s">
+        <v>356</v>
+      </c>
       <c r="U85" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V85" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W85" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z85" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG85" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="AI85" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="AJ85" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="AV85" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW85" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>63</v>
       </c>
@@ -6541,7 +8165,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>64</v>
       </c>
@@ -6575,23 +8199,26 @@
       <c r="N87" t="s">
         <v>239</v>
       </c>
+      <c r="T87" t="s">
+        <v>357</v>
+      </c>
       <c r="U87" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V87" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W87" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z87" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>64</v>
       </c>
@@ -6602,7 +8229,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>65</v>
       </c>
@@ -6636,23 +8263,32 @@
       <c r="N89" t="s">
         <v>240</v>
       </c>
+      <c r="T89" t="s">
+        <v>358</v>
+      </c>
       <c r="U89" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V89" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W89" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z89" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG89" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>66</v>
       </c>
@@ -6686,23 +8322,50 @@
       <c r="N90" t="s">
         <v>241</v>
       </c>
+      <c r="T90" t="s">
+        <v>359</v>
+      </c>
       <c r="U90" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V90" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W90" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z90" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG90" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN90" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO90" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP90" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ90" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR90" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ90" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA90" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB90" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>67</v>
       </c>
@@ -6742,29 +8405,32 @@
       <c r="P91" t="s">
         <v>293</v>
       </c>
+      <c r="T91" t="s">
+        <v>360</v>
+      </c>
       <c r="U91" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V91" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W91" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z91" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG91" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV91" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW91" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>67</v>
       </c>
@@ -6775,7 +8441,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>68</v>
       </c>
@@ -6815,29 +8481,56 @@
       <c r="P93" t="s">
         <v>293</v>
       </c>
+      <c r="T93" t="s">
+        <v>361</v>
+      </c>
       <c r="U93" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V93" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W93" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z93" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG93" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV93" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW93" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN93" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO93" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP93" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ93" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR93" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ93" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA93" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB93" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>68</v>
       </c>
@@ -6848,7 +8541,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>69</v>
       </c>
@@ -6888,29 +8581,32 @@
       <c r="P95" t="s">
         <v>293</v>
       </c>
+      <c r="T95" t="s">
+        <v>362</v>
+      </c>
       <c r="U95" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V95" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W95" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z95" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG95" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="AV95" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW95" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>69</v>
       </c>
@@ -6921,7 +8617,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>70</v>
       </c>
@@ -6955,29 +8651,32 @@
       <c r="N97" t="s">
         <v>245</v>
       </c>
+      <c r="T97" t="s">
+        <v>363</v>
+      </c>
       <c r="U97" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V97" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W97" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z97" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG97" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AI97" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="AJ97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>70</v>
       </c>
@@ -6988,7 +8687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>71</v>
       </c>
@@ -7022,23 +8721,26 @@
       <c r="N99" t="s">
         <v>246</v>
       </c>
+      <c r="T99" t="s">
+        <v>364</v>
+      </c>
       <c r="U99" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V99" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W99" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z99" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG99" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>71</v>
       </c>
@@ -7049,7 +8751,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>72</v>
       </c>
@@ -7089,29 +8791,32 @@
       <c r="P101" t="s">
         <v>293</v>
       </c>
+      <c r="T101" t="s">
+        <v>365</v>
+      </c>
       <c r="U101" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V101" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W101" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z101" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG101" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV101" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW101" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>72</v>
       </c>
@@ -7122,7 +8827,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>73</v>
       </c>
@@ -7162,29 +8867,56 @@
       <c r="P103" t="s">
         <v>293</v>
       </c>
+      <c r="T103" t="s">
+        <v>366</v>
+      </c>
       <c r="U103" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V103" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W103" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z103" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG103" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV103" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW103" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN103" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO103" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP103" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ103" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR103" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ103" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA103" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB103" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>73</v>
       </c>
@@ -7195,7 +8927,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>74</v>
       </c>
@@ -7235,29 +8967,56 @@
       <c r="P105" t="s">
         <v>293</v>
       </c>
+      <c r="T105" t="s">
+        <v>367</v>
+      </c>
       <c r="U105" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V105" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W105" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z105" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG105" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV105" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW105" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN105" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO105" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP105" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ105" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR105" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ105" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA105" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB105" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="106" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>74</v>
       </c>
@@ -7268,7 +9027,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>75</v>
       </c>
@@ -7302,8 +9061,11 @@
       <c r="N107" t="s">
         <v>250</v>
       </c>
+      <c r="T107" t="s">
+        <v>368</v>
+      </c>
       <c r="U107" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V107" t="s">
         <v>293</v>
@@ -7312,13 +9074,19 @@
         <v>293</v>
       </c>
       <c r="Z107" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG107" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI107" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>76</v>
       </c>
@@ -7352,23 +9120,56 @@
       <c r="N108" t="s">
         <v>250</v>
       </c>
+      <c r="T108" t="s">
+        <v>369</v>
+      </c>
       <c r="U108" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V108" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W108" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z108" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG108" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN108" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO108" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP108" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ108" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR108" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ108" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA108" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB108" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>77</v>
       </c>
@@ -7402,23 +9203,32 @@
       <c r="N109" t="s">
         <v>250</v>
       </c>
+      <c r="T109" t="s">
+        <v>370</v>
+      </c>
       <c r="U109" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V109" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W109" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z109" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>78</v>
       </c>
@@ -7452,23 +9262,32 @@
       <c r="N110" t="s">
         <v>250</v>
       </c>
+      <c r="T110" t="s">
+        <v>371</v>
+      </c>
       <c r="U110" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V110" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W110" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z110" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG110" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="111" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>79</v>
       </c>
@@ -7502,23 +9321,32 @@
       <c r="N111" t="s">
         <v>250</v>
       </c>
+      <c r="T111" t="s">
+        <v>372</v>
+      </c>
       <c r="U111" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V111" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W111" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z111" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG111" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>80</v>
       </c>
@@ -7552,23 +9380,56 @@
       <c r="N112" t="s">
         <v>251</v>
       </c>
+      <c r="T112" t="s">
+        <v>373</v>
+      </c>
       <c r="U112" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V112" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W112" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z112" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG112" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN112" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO112" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP112" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ112" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR112" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ112" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA112" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB112" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="113" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>81</v>
       </c>
@@ -7602,23 +9463,32 @@
       <c r="N113" t="s">
         <v>250</v>
       </c>
+      <c r="T113" t="s">
+        <v>374</v>
+      </c>
       <c r="U113" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V113" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W113" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z113" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG113" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="114" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>82</v>
       </c>
@@ -7652,23 +9522,50 @@
       <c r="N114" t="s">
         <v>252</v>
       </c>
+      <c r="T114" t="s">
+        <v>375</v>
+      </c>
       <c r="U114" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V114" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W114" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z114" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG114" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN114" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO114" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP114" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ114" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR114" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ114" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA114" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB114" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>83</v>
       </c>
@@ -7708,8 +9605,11 @@
       <c r="P115" t="s">
         <v>293</v>
       </c>
+      <c r="T115" t="s">
+        <v>376</v>
+      </c>
       <c r="U115" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V115" t="s">
         <v>293</v>
@@ -7718,19 +9618,25 @@
         <v>293</v>
       </c>
       <c r="Z115" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG115" t="s">
         <v>293</v>
       </c>
+      <c r="AI115" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>429</v>
+      </c>
       <c r="AV115" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW115" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>83</v>
       </c>
@@ -7741,7 +9647,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>84</v>
       </c>
@@ -7781,8 +9687,11 @@
       <c r="P117" t="s">
         <v>293</v>
       </c>
+      <c r="T117" t="s">
+        <v>377</v>
+      </c>
       <c r="U117" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V117" t="s">
         <v>293</v>
@@ -7791,19 +9700,19 @@
         <v>293</v>
       </c>
       <c r="Z117" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG117" t="s">
         <v>293</v>
       </c>
       <c r="AV117" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW117" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>84</v>
       </c>
@@ -7814,7 +9723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>85</v>
       </c>
@@ -7848,8 +9757,11 @@
       <c r="N119" t="s">
         <v>255</v>
       </c>
+      <c r="T119" t="s">
+        <v>378</v>
+      </c>
       <c r="U119" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V119" t="s">
         <v>293</v>
@@ -7858,13 +9770,19 @@
         <v>293</v>
       </c>
       <c r="Z119" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG119" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI119" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>85</v>
       </c>
@@ -7875,7 +9793,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>86</v>
       </c>
@@ -7915,8 +9833,11 @@
       <c r="P121" t="s">
         <v>293</v>
       </c>
+      <c r="T121" t="s">
+        <v>379</v>
+      </c>
       <c r="U121" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V121" t="s">
         <v>293</v>
@@ -7925,19 +9846,19 @@
         <v>293</v>
       </c>
       <c r="Z121" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG121" t="s">
         <v>293</v>
       </c>
       <c r="AV121" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW121" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>86</v>
       </c>
@@ -7948,7 +9869,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>87</v>
       </c>
@@ -7982,8 +9903,11 @@
       <c r="N123" t="s">
         <v>257</v>
       </c>
+      <c r="T123" t="s">
+        <v>380</v>
+      </c>
       <c r="U123" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V123" t="s">
         <v>293</v>
@@ -7992,13 +9916,13 @@
         <v>293</v>
       </c>
       <c r="Z123" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG123" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>88</v>
       </c>
@@ -8032,23 +9956,32 @@
       <c r="N124" t="s">
         <v>258</v>
       </c>
+      <c r="T124" t="s">
+        <v>381</v>
+      </c>
       <c r="U124" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V124" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W124" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z124" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG124" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>88</v>
       </c>
@@ -8059,7 +9992,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>89</v>
       </c>
@@ -8093,8 +10026,11 @@
       <c r="N126" t="s">
         <v>259</v>
       </c>
+      <c r="T126" t="s">
+        <v>382</v>
+      </c>
       <c r="U126" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V126" t="s">
         <v>293</v>
@@ -8103,13 +10039,13 @@
         <v>293</v>
       </c>
       <c r="Z126" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG126" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>89</v>
       </c>
@@ -8120,7 +10056,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>90</v>
       </c>
@@ -8154,23 +10090,32 @@
       <c r="N128" t="s">
         <v>260</v>
       </c>
+      <c r="T128" t="s">
+        <v>383</v>
+      </c>
       <c r="U128" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V128" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W128" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z128" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG128" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="129" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>91</v>
       </c>
@@ -8204,23 +10149,32 @@
       <c r="N129" t="s">
         <v>261</v>
       </c>
+      <c r="T129" t="s">
+        <v>384</v>
+      </c>
       <c r="U129" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V129" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W129" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z129" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG129" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>91</v>
       </c>
@@ -8231,7 +10185,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>92</v>
       </c>
@@ -8265,8 +10219,11 @@
       <c r="N131" t="s">
         <v>262</v>
       </c>
+      <c r="T131" t="s">
+        <v>385</v>
+      </c>
       <c r="U131" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V131" t="s">
         <v>293</v>
@@ -8275,13 +10232,19 @@
         <v>293</v>
       </c>
       <c r="Z131" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG131" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI131" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>92</v>
       </c>
@@ -8292,7 +10255,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>93</v>
       </c>
@@ -8326,8 +10289,11 @@
       <c r="N133" t="s">
         <v>263</v>
       </c>
+      <c r="T133" t="s">
+        <v>386</v>
+      </c>
       <c r="U133" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V133" t="s">
         <v>293</v>
@@ -8336,13 +10302,19 @@
         <v>293</v>
       </c>
       <c r="Z133" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG133" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI133" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="134" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>93</v>
       </c>
@@ -8353,7 +10325,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>94</v>
       </c>
@@ -8387,23 +10359,50 @@
       <c r="N135" t="s">
         <v>264</v>
       </c>
+      <c r="T135" t="s">
+        <v>387</v>
+      </c>
       <c r="U135" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V135" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W135" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z135" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG135" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN135" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO135" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP135" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ135" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR135" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ135" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA135" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB135" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="136" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>94</v>
       </c>
@@ -8414,7 +10413,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>95</v>
       </c>
@@ -8448,23 +10447,32 @@
       <c r="N137" t="s">
         <v>265</v>
       </c>
+      <c r="T137" t="s">
+        <v>388</v>
+      </c>
       <c r="U137" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V137" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W137" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z137" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG137" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ137" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="138" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>95</v>
       </c>
@@ -8475,7 +10483,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>96</v>
       </c>
@@ -8509,23 +10517,50 @@
       <c r="N139" t="s">
         <v>266</v>
       </c>
+      <c r="T139" t="s">
+        <v>389</v>
+      </c>
       <c r="U139" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V139" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W139" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z139" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG139" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN139" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO139" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP139" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ139" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR139" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ139" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA139" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB139" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="140" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>96</v>
       </c>
@@ -8536,7 +10571,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>97</v>
       </c>
@@ -8570,8 +10605,11 @@
       <c r="N141" t="s">
         <v>267</v>
       </c>
+      <c r="T141" t="s">
+        <v>390</v>
+      </c>
       <c r="U141" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V141" t="s">
         <v>293</v>
@@ -8580,13 +10618,13 @@
         <v>293</v>
       </c>
       <c r="Z141" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG141" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>98</v>
       </c>
@@ -8620,23 +10658,26 @@
       <c r="N142" t="s">
         <v>267</v>
       </c>
+      <c r="T142" t="s">
+        <v>391</v>
+      </c>
       <c r="U142" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V142" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W142" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z142" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG142" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>99</v>
       </c>
@@ -8670,23 +10711,26 @@
       <c r="N143" t="s">
         <v>267</v>
       </c>
+      <c r="T143" t="s">
+        <v>392</v>
+      </c>
       <c r="U143" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V143" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W143" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z143" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG143" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>100</v>
       </c>
@@ -8720,23 +10764,50 @@
       <c r="N144" t="s">
         <v>267</v>
       </c>
+      <c r="T144" t="s">
+        <v>393</v>
+      </c>
       <c r="U144" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V144" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W144" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z144" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG144" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="BN144" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO144" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP144" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ144" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR144" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ144" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA144" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB144" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>101</v>
       </c>
@@ -8770,8 +10841,11 @@
       <c r="N145" t="s">
         <v>267</v>
       </c>
+      <c r="T145" t="s">
+        <v>394</v>
+      </c>
       <c r="U145" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V145" t="s">
         <v>293</v>
@@ -8780,13 +10854,13 @@
         <v>293</v>
       </c>
       <c r="Z145" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG145" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>102</v>
       </c>
@@ -8820,23 +10894,26 @@
       <c r="N146" t="s">
         <v>267</v>
       </c>
+      <c r="T146" t="s">
+        <v>395</v>
+      </c>
       <c r="U146" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V146" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W146" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z146" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG146" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>103</v>
       </c>
@@ -8876,29 +10953,62 @@
       <c r="P147" t="s">
         <v>293</v>
       </c>
+      <c r="T147" t="s">
+        <v>396</v>
+      </c>
       <c r="U147" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V147" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W147" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z147" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG147" t="s">
-        <v>295</v>
+        <v>424</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>429</v>
       </c>
       <c r="AV147" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW147" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN147" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO147" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP147" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ147" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR147" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ147" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA147" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB147" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>103</v>
       </c>
@@ -8909,7 +11019,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>104</v>
       </c>
@@ -8943,23 +11053,26 @@
       <c r="N149" t="s">
         <v>269</v>
       </c>
+      <c r="T149" t="s">
+        <v>397</v>
+      </c>
       <c r="U149" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V149" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W149" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z149" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG149" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="150" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>104</v>
       </c>
@@ -8970,7 +11083,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>105</v>
       </c>
@@ -9010,29 +11123,56 @@
       <c r="P151" t="s">
         <v>293</v>
       </c>
+      <c r="T151" t="s">
+        <v>398</v>
+      </c>
       <c r="U151" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V151" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W151" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z151" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG151" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV151" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW151" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN151" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO151" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP151" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ151" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR151" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ151" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA151" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB151" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>105</v>
       </c>
@@ -9043,7 +11183,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>106</v>
       </c>
@@ -9083,29 +11223,56 @@
       <c r="P153" t="s">
         <v>293</v>
       </c>
+      <c r="T153" t="s">
+        <v>399</v>
+      </c>
       <c r="U153" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V153" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W153" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z153" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG153" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="AV153" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW153" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="BN153" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO153" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP153" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ153" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR153" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ153" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA153" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB153" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>106</v>
       </c>
@@ -9116,7 +11283,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>107</v>
       </c>
@@ -9150,23 +11317,32 @@
       <c r="N155" t="s">
         <v>272</v>
       </c>
+      <c r="T155" t="s">
+        <v>400</v>
+      </c>
       <c r="U155" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V155" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W155" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z155" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG155" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>107</v>
       </c>
@@ -9177,7 +11353,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>108</v>
       </c>
@@ -9211,8 +11387,11 @@
       <c r="N157" t="s">
         <v>273</v>
       </c>
+      <c r="T157" t="s">
+        <v>401</v>
+      </c>
       <c r="U157" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V157" t="s">
         <v>293</v>
@@ -9221,13 +11400,19 @@
         <v>293</v>
       </c>
       <c r="Z157" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG157" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI157" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="158" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>109</v>
       </c>
@@ -9261,23 +11446,26 @@
       <c r="N158" t="s">
         <v>273</v>
       </c>
+      <c r="T158" t="s">
+        <v>402</v>
+      </c>
       <c r="U158" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V158" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W158" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z158" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG158" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="159" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>110</v>
       </c>
@@ -9311,8 +11499,11 @@
       <c r="N159" t="s">
         <v>274</v>
       </c>
+      <c r="T159" t="s">
+        <v>403</v>
+      </c>
       <c r="U159" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V159" t="s">
         <v>293</v>
@@ -9321,13 +11512,19 @@
         <v>293</v>
       </c>
       <c r="Z159" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG159" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI159" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="160" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>111</v>
       </c>
@@ -9361,8 +11558,11 @@
       <c r="N160" t="s">
         <v>274</v>
       </c>
+      <c r="T160" t="s">
+        <v>404</v>
+      </c>
       <c r="U160" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V160" t="s">
         <v>293</v>
@@ -9371,13 +11571,19 @@
         <v>293</v>
       </c>
       <c r="Z160" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG160" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI160" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>112</v>
       </c>
@@ -9411,23 +11617,32 @@
       <c r="N161" t="s">
         <v>273</v>
       </c>
+      <c r="T161" t="s">
+        <v>405</v>
+      </c>
       <c r="U161" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V161" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W161" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z161" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG161" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="162" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>113</v>
       </c>
@@ -9461,8 +11676,11 @@
       <c r="N162" t="s">
         <v>273</v>
       </c>
+      <c r="T162" t="s">
+        <v>406</v>
+      </c>
       <c r="U162" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V162" t="s">
         <v>293</v>
@@ -9471,13 +11689,13 @@
         <v>293</v>
       </c>
       <c r="Z162" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG162" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>114</v>
       </c>
@@ -9511,23 +11729,32 @@
       <c r="N163" t="s">
         <v>273</v>
       </c>
+      <c r="T163" t="s">
+        <v>407</v>
+      </c>
       <c r="U163" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V163" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W163" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z163" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG163" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="164" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>115</v>
       </c>
@@ -9561,8 +11788,11 @@
       <c r="N164" t="s">
         <v>275</v>
       </c>
+      <c r="T164" t="s">
+        <v>408</v>
+      </c>
       <c r="U164" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V164" t="s">
         <v>293</v>
@@ -9571,13 +11801,19 @@
         <v>293</v>
       </c>
       <c r="Z164" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG164" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI164" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="165" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>116</v>
       </c>
@@ -9611,23 +11847,32 @@
       <c r="N165" t="s">
         <v>276</v>
       </c>
+      <c r="T165" t="s">
+        <v>409</v>
+      </c>
       <c r="U165" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V165" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W165" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z165" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG165" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="166" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>117</v>
       </c>
@@ -9661,23 +11906,56 @@
       <c r="N166" t="s">
         <v>276</v>
       </c>
+      <c r="T166" t="s">
+        <v>410</v>
+      </c>
       <c r="U166" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V166" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W166" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z166" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG166" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN166" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO166" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP166" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ166" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR166" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ166" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA166" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB166" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="167" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>118</v>
       </c>
@@ -9717,29 +11995,32 @@
       <c r="P167" t="s">
         <v>293</v>
       </c>
+      <c r="T167" t="s">
+        <v>411</v>
+      </c>
       <c r="U167" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V167" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W167" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z167" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG167" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="AV167" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW167" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>118</v>
       </c>
@@ -9750,7 +12031,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>119</v>
       </c>
@@ -9784,23 +12065,26 @@
       <c r="N169" t="s">
         <v>278</v>
       </c>
+      <c r="T169" t="s">
+        <v>412</v>
+      </c>
       <c r="U169" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V169" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W169" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z169" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG169" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="170" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>119</v>
       </c>
@@ -9811,7 +12095,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>120</v>
       </c>
@@ -9845,8 +12129,11 @@
       <c r="N171" t="s">
         <v>279</v>
       </c>
+      <c r="T171" t="s">
+        <v>413</v>
+      </c>
       <c r="U171" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V171" t="s">
         <v>293</v>
@@ -9855,13 +12142,13 @@
         <v>293</v>
       </c>
       <c r="Z171" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG171" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>120</v>
       </c>
@@ -9872,7 +12159,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>121</v>
       </c>
@@ -9906,8 +12193,11 @@
       <c r="N173" t="s">
         <v>280</v>
       </c>
+      <c r="T173" t="s">
+        <v>414</v>
+      </c>
       <c r="U173" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V173" t="s">
         <v>293</v>
@@ -9916,13 +12206,19 @@
         <v>293</v>
       </c>
       <c r="Z173" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG173" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="AI173" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="174" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>122</v>
       </c>
@@ -9956,23 +12252,56 @@
       <c r="N174" t="s">
         <v>281</v>
       </c>
+      <c r="T174" t="s">
+        <v>415</v>
+      </c>
       <c r="U174" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V174" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W174" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z174" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG174" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN174" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO174" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP174" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ174" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR174" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ174" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA174" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB174" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="175" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>123</v>
       </c>
@@ -10012,29 +12341,32 @@
       <c r="P175" t="s">
         <v>293</v>
       </c>
+      <c r="T175" t="s">
+        <v>416</v>
+      </c>
       <c r="U175" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V175" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="W175" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="Z175" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG175" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="AV175" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="AW175" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>124</v>
       </c>
@@ -10068,8 +12400,11 @@
       <c r="N176" t="s">
         <v>283</v>
       </c>
+      <c r="T176" t="s">
+        <v>417</v>
+      </c>
       <c r="U176" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V176" t="s">
         <v>293</v>
@@ -10078,13 +12413,19 @@
         <v>293</v>
       </c>
       <c r="Z176" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG176" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI176" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="177" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>125</v>
       </c>
@@ -10118,23 +12459,56 @@
       <c r="N177" t="s">
         <v>284</v>
       </c>
+      <c r="T177" t="s">
+        <v>418</v>
+      </c>
       <c r="U177" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V177" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W177" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z177" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG177" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN177" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO177" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP177" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ177" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR177" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ177" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA177" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB177" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="178" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>126</v>
       </c>
@@ -10168,23 +12542,32 @@
       <c r="N178" t="s">
         <v>285</v>
       </c>
+      <c r="T178" t="s">
+        <v>419</v>
+      </c>
       <c r="U178" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V178" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W178" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z178" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG178" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="179" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>127</v>
       </c>
@@ -10218,23 +12601,32 @@
       <c r="N179" t="s">
         <v>286</v>
       </c>
+      <c r="T179" t="s">
+        <v>420</v>
+      </c>
       <c r="U179" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V179" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="W179" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="Z179" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG179" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="180" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>127</v>
       </c>
@@ -10245,7 +12637,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>128</v>
       </c>
@@ -10279,23 +12671,56 @@
       <c r="N181" t="s">
         <v>287</v>
       </c>
+      <c r="T181" t="s">
+        <v>421</v>
+      </c>
       <c r="U181" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V181" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W181" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z181" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG181" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN181" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO181" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP181" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ181" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR181" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ181" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA181" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB181" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="182" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>128</v>
       </c>
@@ -10306,7 +12731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>129</v>
       </c>
@@ -10340,20 +12765,53 @@
       <c r="N183" t="s">
         <v>288</v>
       </c>
+      <c r="T183" t="s">
+        <v>422</v>
+      </c>
       <c r="U183" t="s">
-        <v>294</v>
+        <v>423</v>
       </c>
       <c r="V183" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="W183" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="Z183" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
       <c r="AG183" t="s">
-        <v>295</v>
+        <v>424</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>429</v>
+      </c>
+      <c r="BN183" t="s">
+        <v>428</v>
+      </c>
+      <c r="BO183" t="s">
+        <v>428</v>
+      </c>
+      <c r="BP183" t="s">
+        <v>428</v>
+      </c>
+      <c r="BQ183" t="s">
+        <v>428</v>
+      </c>
+      <c r="BR183" t="s">
+        <v>429</v>
+      </c>
+      <c r="BZ183" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA183" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB183" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
